--- a/static/xlsx/1.xlsx
+++ b/static/xlsx/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Мои документы\на отправку\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0AF1B4-9F6D-4376-8282-C71A947B4884}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5192B81F-728B-4C2D-AEA0-BC4B2BED495E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="11340" windowHeight="5985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$T$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$T$42</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>ПОДТВЕРЖДЕНИЕ №</t>
   </si>
@@ -102,76 +102,73 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>Москва - Углич - Ярославль-</t>
-  </si>
-  <si>
     <t>Васив Д.М.</t>
   </si>
   <si>
+    <t>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ОПЛАЧЕНЫ</t>
+  </si>
+  <si>
+    <t>Ответсвенное лицо:</t>
+  </si>
+  <si>
+    <t>(менеджер ви-</t>
+  </si>
+  <si>
+    <t>зового отдела)</t>
+  </si>
+  <si>
+    <t>Реестровый № 000286</t>
+  </si>
+  <si>
+    <t>США</t>
+  </si>
+  <si>
+    <t>Москва, Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>в городе Москва, Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>016290</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург, улица Большая Морская 31-23</t>
+  </si>
+  <si>
+    <t>MIR TRAVEL COMPANY LTD., 190000, Россия,</t>
+  </si>
+  <si>
+    <t>на борту теплохода "АКУН" (Viking Akun)</t>
+  </si>
+  <si>
+    <t>"АКУН", трансферы и экскурсионное обслуживание</t>
+  </si>
+  <si>
+    <t>01/06/2019</t>
+  </si>
+  <si>
     <t>МУЖСКОЙ</t>
   </si>
   <si>
-    <t>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ОПЛАЧЕНЫ</t>
-  </si>
-  <si>
-    <t>Ответсвенное лицо:</t>
-  </si>
-  <si>
-    <t>(менеджер ви-</t>
-  </si>
-  <si>
-    <t>зового отдела)</t>
-  </si>
-  <si>
-    <t>АВСТРАЛИЯ</t>
-  </si>
-  <si>
-    <t>READ/РИД</t>
-  </si>
-  <si>
-    <t>JOHN RICHARD/ДЖОН РИЧАРД</t>
-  </si>
-  <si>
-    <t>22.04.43</t>
-  </si>
-  <si>
-    <t>L3989155</t>
-  </si>
-  <si>
-    <t>Кузино - Кижи - Мандроги-Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>в городе Москва - Углич - Ярославль -Кузино- Кижи - Мандроги-</t>
-  </si>
-  <si>
-    <t>016290</t>
-  </si>
-  <si>
-    <t>MIR TRAVEL COMPANY LTD., 190000, Россия,</t>
-  </si>
-  <si>
-    <t>Санкт-Петербург, улица Большая Морская 31-23</t>
-  </si>
-  <si>
-    <t>"АКУН", трансферы и экскурсионное обслуживание</t>
-  </si>
-  <si>
-    <t>на борту теплохода "АКУН" (Viking Akun)</t>
-  </si>
-  <si>
-    <t>0011 - AUS  06/07</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
-  </si>
-  <si>
-    <t>18/07/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реестровый № </t>
+    <t>130319 -                USA 19/05</t>
+  </si>
+  <si>
+    <t>19/05/2019</t>
+  </si>
+  <si>
+    <t>02/07/1959</t>
+  </si>
+  <si>
+    <t>482477716</t>
+  </si>
+  <si>
+    <t>визовое приглашение № 0047</t>
+  </si>
+  <si>
+    <t>РИКИ МАБУРН/RICKY MABURN</t>
+  </si>
+  <si>
+    <t>СТРИКЛИН/STRICKLIN</t>
   </si>
 </sst>
 </file>
@@ -230,8 +227,9 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="12"/>
       <name val="Arial Cyr"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -384,9 +382,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,14 +419,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,19 +455,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,9 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,22 +491,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1049" name="Изображение 2">
+        <xdr:cNvPr id="1037" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -525,7 +523,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1457325" y="6972300"/>
+          <a:off x="1276350" y="6877050"/>
           <a:ext cx="1771650" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -546,21 +544,21 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1050" name="Изображение 2">
+        <xdr:cNvPr id="1038" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -577,7 +575,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6962775" y="6962775"/>
+          <a:off x="6962775" y="6886575"/>
           <a:ext cx="1762125" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -597,22 +595,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1051" name="Рисунок 5">
+        <xdr:cNvPr id="1039" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -629,7 +627,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="6515100"/>
+          <a:off x="9525" y="6448425"/>
           <a:ext cx="1866900" cy="2009775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -649,22 +647,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1052" name="Рисунок 5">
+        <xdr:cNvPr id="1040" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -681,8 +679,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5153025" y="6505575"/>
-          <a:ext cx="1866900" cy="2019300"/>
+          <a:off x="5476875" y="6457950"/>
+          <a:ext cx="1866900" cy="2009775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1022,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1062,46 +1060,43 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
       <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="11"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49" t="str">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="46" t="str">
         <f>REPT(F2,1)</f>
-        <v>0011 - AUS  06/07</v>
-      </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="11" t="str">
-        <f>REPT(H2,1)</f>
-        <v/>
-      </c>
-      <c r="R2" s="12" t="str">
+        <v>130319 -                USA 19/05</v>
+      </c>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="11" t="str">
         <f>REPT(I2,1)</f>
         <v/>
       </c>
@@ -1110,80 +1105,76 @@
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="3"/>
+    <row r="4" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="33" t="str">
-        <f>REPT(D5,1)</f>
-        <v>ОДНОКРАТНАЯ</v>
-      </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="10"/>
+      <c r="B5" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="32" t="str">
+        <f>REPT(B5,1)</f>
+        <v>визовое приглашение № 0047</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1206,12 +1197,12 @@
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="34"/>
+      <c r="B7" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="32"/>
       <c r="D7" s="33" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -1219,13 +1210,13 @@
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="34"/>
+      <c r="K7" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="32"/>
       <c r="M7" s="33" t="str">
         <f>REPT(D7,1)</f>
-        <v>АВСТРАЛИЯ</v>
+        <v>ОДНОКРАТНАЯ</v>
       </c>
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
@@ -1234,7 +1225,7 @@
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1257,44 +1248,35 @@
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="17"/>
+      <c r="B9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="44" t="str">
-        <f>REPT(C9,1)</f>
-        <v>06/07/2018</v>
-      </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="33" t="str">
-        <f>REPT(F9,1)</f>
-        <v>18/07/2018</v>
-      </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="16"/>
+      <c r="K9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33" t="str">
+        <f>REPT(D9,1)</f>
+        <v>США</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1313,39 +1295,48 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="10"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="33" t="str">
+        <v>6</v>
+      </c>
+      <c r="L11" s="37" t="str">
         <f>REPT(C11,1)</f>
-        <v>READ/РИД</v>
-      </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
+        <v>19/05/2019</v>
+      </c>
+      <c r="M11" s="37"/>
+      <c r="N11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="33" t="str">
+        <f>REPT(F11,1)</f>
+        <v>01/06/2019</v>
+      </c>
       <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1364,32 +1355,32 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="10"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33" t="s">
-        <v>35</v>
-      </c>
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="33" t="str">
-        <f>REPT(E13,1)</f>
-        <v>JOHN RICHARD/ДЖОН РИЧАРД</v>
-      </c>
+      <c r="K13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="33" t="str">
+        <f>REPT(C13,1)</f>
+        <v>СТРИКЛИН/STRICKLIN</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
@@ -1401,61 +1392,49 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="33" t="str">
-        <f>REPT(E14,1)</f>
-        <v/>
-      </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
       <c r="R14" s="3"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="10"/>
+      <c r="B15" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="44" t="str">
-        <f>REPT(D15,1)</f>
-        <v>22.04.43</v>
-      </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="41" t="str">
-        <f>REPT(G15,1)</f>
-        <v>МУЖСКОЙ</v>
-      </c>
-      <c r="Q15" s="41"/>
+      <c r="K15" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="33" t="str">
+        <f>REPT(E15,1)</f>
+        <v>РИКИ МАБУРН/RICKY MABURN</v>
+      </c>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
@@ -1464,49 +1443,61 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="N16" s="33" t="str">
+        <f>REPT(E16,1)</f>
+        <v/>
+      </c>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
       <c r="R16" s="3"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="B17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="36"/>
       <c r="I17" s="10"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="42" t="str">
+      <c r="K17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="32"/>
+      <c r="M17" s="37" t="str">
         <f>REPT(D17,1)</f>
-        <v>L3989155</v>
-      </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+        <v>02/07/1959</v>
+      </c>
+      <c r="N17" s="37"/>
+      <c r="O17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="34" t="str">
+        <f>REPT(G17,1)</f>
+        <v>МУЖСКОЙ</v>
+      </c>
+      <c r="Q17" s="34"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
@@ -1533,28 +1524,28 @@
     </row>
     <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="33"/>
+      <c r="B19" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="35"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="33" t="str">
+      <c r="K19" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="35" t="str">
         <f>REPT(D19,1)</f>
-        <v>ТУРИЗМ</v>
-      </c>
-      <c r="N19" s="33"/>
+        <v>482477716</v>
+      </c>
+      <c r="N19" s="35"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -1584,642 +1575,665 @@
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="B21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="38" t="str">
-        <f>REPT(F21,1)</f>
-        <v>Москва - Углич - Ярославль-</v>
-      </c>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="K21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33" t="str">
+        <f>REPT(D21,1)</f>
+        <v>ТУРИЗМ</v>
+      </c>
+      <c r="N21" s="33"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="38" t="str">
-        <f>REPT(B22,1)</f>
-        <v>Кузино - Кижи - Мандроги-Санкт-Петербург</v>
-      </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="10"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="3"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="3"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="41" t="str">
+        <f>REPT(F23,1)</f>
+        <v>Москва, Санкт-Петербург</v>
+      </c>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="45" t="str">
-        <f>REPT(D24,1)</f>
-        <v>на борту теплохода "АКУН" (Viking Akun)</v>
-      </c>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="10"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="3"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="9"/>
+      <c r="K25" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44" t="str">
+        <f>REPT(D25,1)</f>
+        <v>на борту теплохода "АКУН" (Viking Akun)</v>
+      </c>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="B26" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="38" t="str">
-        <f>REPT(B26,1)</f>
-        <v>MIR TRAVEL COMPANY LTD., 190000, Россия,</v>
-      </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
+      <c r="K26" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
+      <c r="B27" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="38" t="str">
+      <c r="K27" s="41" t="str">
         <f>REPT(B27,1)</f>
-        <v>Санкт-Петербург, улица Большая Морская 31-23</v>
-      </c>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+        <v>MIR TRAVEL COMPANY LTD., 190000, Россия,</v>
+      </c>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="28"/>
-      <c r="M28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
+      <c r="B28" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="41" t="str">
+        <f>REPT(B28,1)</f>
+        <v>Санкт-Петербург, улица Большая Морская 31-23</v>
+      </c>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="3"/>
+    <row r="29" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="27"/>
+      <c r="M29" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="39" t="str">
-        <f>REPT(E30,1)</f>
-        <v>Вышеуказанному туристу</v>
-      </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="10"/>
+    <row r="30" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="3"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="B31" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="10"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="38" t="str">
-        <f>REPT(B31,1)</f>
-        <v>предоставляется  размещение и питание на борту теплохода</v>
-      </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
+      <c r="K31" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="42" t="str">
+        <f>REPT(E31,1)</f>
+        <v>Вышеуказанному туристу</v>
+      </c>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+      <c r="B32" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="10"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="38" t="str">
+      <c r="K32" s="41" t="str">
         <f>REPT(B32,1)</f>
-        <v>"АКУН", трансферы и экскурсионное обслуживание</v>
-      </c>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
+        <v>предоставляется  размещение и питание на борту теплохода</v>
+      </c>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="B33" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="10"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="38" t="str">
+      <c r="K33" s="41" t="str">
         <f>REPT(B33,1)</f>
-        <v>в городе Москва - Углич - Ярославль -Кузино- Кижи - Мандроги-</v>
-      </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
+        <v>"АКУН", трансферы и экскурсионное обслуживание</v>
+      </c>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="B34" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="10"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="38" t="str">
+      <c r="K34" s="41" t="str">
         <f>REPT(B34,1)</f>
-        <v>Санкт-Петербург</v>
-      </c>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
+        <v>в городе Москва, Санкт-Петербург</v>
+      </c>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
       <c r="I35" s="10"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
+      <c r="K35" s="41" t="str">
+        <f>REPT(B35,1)</f>
+        <v/>
+      </c>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
       <c r="I36" s="10"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
+      <c r="K36" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="B37" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
       <c r="I37" s="10"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
+      <c r="K37" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="B38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="10"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="K38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="32"/>
       <c r="H39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
+        <v>28</v>
+      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="32"/>
       <c r="Q39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="19" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D41" s="38">
         <f ca="1">TODAY()</f>
-        <v>43402</v>
-      </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="19" t="s">
+        <v>43503</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="35">
+      <c r="M41" s="38">
         <f ca="1">TODAY()</f>
-        <v>43402</v>
-      </c>
-      <c r="N40" s="36"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-    </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="22"/>
+        <v>43503</v>
+      </c>
+      <c r="N41" s="39"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+    </row>
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="L2:N2"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="L3:P3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L9:M9"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:Q13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/static/xlsx/1.xlsx
+++ b/static/xlsx/1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Мои документы\на отправку\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\denekra\youdo\2019-01-26_visa_django\visa_app\static\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5192B81F-728B-4C2D-AEA0-BC4B2BED495E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$T$42</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -174,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -425,49 +424,49 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,7 +505,7 @@
         <xdr:cNvPr id="1037" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -538,7 +537,7 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -558,7 +557,7 @@
         <xdr:cNvPr id="1038" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -590,7 +589,7 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -610,7 +609,7 @@
         <xdr:cNvPr id="1039" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -642,7 +641,7 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -662,7 +661,7 @@
         <xdr:cNvPr id="1040" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -694,7 +693,7 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -775,23 +774,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -827,23 +809,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1019,11 +984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1060,42 +1025,42 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="33"/>
       <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="46" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="46" t="str">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="str">
         <f>REPT(F2,1)</f>
         <v>130319 -                USA 19/05</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
       <c r="R2" s="11" t="str">
         <f>REPT(I2,1)</f>
         <v/>
@@ -1105,24 +1070,24 @@
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="10"/>
@@ -1150,24 +1115,24 @@
     </row>
     <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="32" t="str">
+      <c r="K5" s="35" t="str">
         <f>REPT(B5,1)</f>
         <v>визовое приглашение № 0047</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="12"/>
@@ -1197,29 +1162,29 @@
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33" t="str">
+      <c r="L7" s="35"/>
+      <c r="M7" s="36" t="str">
         <f>REPT(D7,1)</f>
         <v>ОДНОКРАТНАЯ</v>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
@@ -1248,29 +1213,29 @@
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33" t="str">
+      <c r="L9" s="35"/>
+      <c r="M9" s="36" t="str">
         <f>REPT(D9,1)</f>
         <v>США</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
@@ -1302,36 +1267,36 @@
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="16"/>
       <c r="I11" s="10"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="37" t="str">
+      <c r="L11" s="40" t="str">
         <f>REPT(C11,1)</f>
         <v>19/05/2019</v>
       </c>
-      <c r="M11" s="37"/>
+      <c r="M11" s="40"/>
       <c r="N11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="33" t="str">
+      <c r="O11" s="36" t="str">
         <f>REPT(F11,1)</f>
         <v>01/06/2019</v>
       </c>
-      <c r="P11" s="33"/>
+      <c r="P11" s="36"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -1362,28 +1327,28 @@
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="33" t="str">
+      <c r="L13" s="36" t="str">
         <f>REPT(C13,1)</f>
         <v>СТРИКЛИН/STRICKLIN</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
     </row>
@@ -1410,31 +1375,31 @@
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="17"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33" t="str">
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36" t="str">
         <f>REPT(E15,1)</f>
         <v>РИКИ МАБУРН/RICKY MABURN</v>
       </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
@@ -1443,61 +1408,61 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="33" t="str">
+      <c r="N16" s="36" t="str">
         <f>REPT(E16,1)</f>
         <v/>
       </c>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="3"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="10"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="32"/>
-      <c r="M17" s="37" t="str">
+      <c r="L17" s="35"/>
+      <c r="M17" s="40" t="str">
         <f>REPT(D17,1)</f>
         <v>02/07/1959</v>
       </c>
-      <c r="N17" s="37"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P17" s="34" t="str">
+      <c r="P17" s="48" t="str">
         <f>REPT(G17,1)</f>
         <v>МУЖСКОЙ</v>
       </c>
-      <c r="Q17" s="34"/>
+      <c r="Q17" s="48"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
@@ -1524,28 +1489,28 @@
     </row>
     <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="35"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="35" t="str">
+      <c r="L19" s="35"/>
+      <c r="M19" s="38" t="str">
         <f>REPT(D19,1)</f>
         <v>482477716</v>
       </c>
-      <c r="N19" s="35"/>
+      <c r="N19" s="38"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -1575,28 +1540,28 @@
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33" t="str">
+      <c r="L21" s="35"/>
+      <c r="M21" s="36" t="str">
         <f>REPT(D21,1)</f>
         <v>ТУРИЗМ</v>
       </c>
-      <c r="N21" s="33"/>
+      <c r="N21" s="36"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -1626,12 +1591,12 @@
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="41" t="s">
         <v>32</v>
       </c>
@@ -1639,12 +1604,12 @@
       <c r="H23" s="41"/>
       <c r="I23" s="10"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="41" t="str">
         <f>REPT(F23,1)</f>
         <v>Москва, Санкт-Петербург</v>
@@ -1677,55 +1642,55 @@
     </row>
     <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44" t="str">
+      <c r="L25" s="42"/>
+      <c r="M25" s="43" t="str">
         <f>REPT(D25,1)</f>
         <v>на борту теплохода "АКУН" (Viking Akun)</v>
       </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -1834,31 +1799,31 @@
     </row>
     <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="42" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
       <c r="I31" s="10"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="42" t="str">
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="44" t="str">
         <f>REPT(E31,1)</f>
         <v>Вышеуказанному туристу</v>
       </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
@@ -2045,12 +2010,12 @@
       <c r="C39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="32" t="s">
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="32"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="9" t="s">
         <v>28</v>
       </c>
@@ -2060,12 +2025,12 @@
       <c r="L39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="32" t="s">
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="32"/>
+      <c r="P39" s="35"/>
       <c r="Q39" s="9" t="s">
         <v>28</v>
       </c>
@@ -2078,8 +2043,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="9" t="s">
         <v>29</v>
       </c>
@@ -2089,8 +2054,8 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
       <c r="Q40" s="9" t="s">
         <v>29</v>
       </c>
@@ -2103,13 +2068,13 @@
       <c r="C41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="46">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
+        <v>43513</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="8"/>
@@ -2117,13 +2082,13 @@
       <c r="L41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="38">
+      <c r="M41" s="46">
         <f ca="1">TODAY()</f>
-        <v>43503</v>
-      </c>
-      <c r="N41" s="39"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
+        <v>43513</v>
+      </c>
+      <c r="N41" s="47"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -2151,75 +2116,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:Q15"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="K21:L21"/>
@@ -2234,6 +2130,75 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2245,7 +2210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2259,7 +2224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/static/xlsx/1.xlsx
+++ b/static/xlsx/1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>ПОДТВЕРЖДЕНИЕ №</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Кратность визы</t>
   </si>
   <si>
-    <t>ОДНОКРАТНАЯ</t>
-  </si>
-  <si>
     <t>Гражданство</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Цель поездки</t>
   </si>
   <si>
-    <t>ТУРИЗМ</t>
-  </si>
-  <si>
     <t>Маршрут и места размещения город</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
     <t>Дополнительные сведения:</t>
   </si>
   <si>
-    <t>Вышеуказанному туристу</t>
-  </si>
-  <si>
-    <t>предоставляется  размещение и питание на борту теплохода</t>
-  </si>
-  <si>
     <t>М.П.</t>
   </si>
   <si>
@@ -119,55 +107,7 @@
     <t>Реестровый № 000286</t>
   </si>
   <si>
-    <t>США</t>
-  </si>
-  <si>
-    <t>Москва, Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>в городе Москва, Санкт-Петербург</t>
-  </si>
-  <si>
     <t>016290</t>
-  </si>
-  <si>
-    <t>Санкт-Петербург, улица Большая Морская 31-23</t>
-  </si>
-  <si>
-    <t>MIR TRAVEL COMPANY LTD., 190000, Россия,</t>
-  </si>
-  <si>
-    <t>на борту теплохода "АКУН" (Viking Akun)</t>
-  </si>
-  <si>
-    <t>"АКУН", трансферы и экскурсионное обслуживание</t>
-  </si>
-  <si>
-    <t>01/06/2019</t>
-  </si>
-  <si>
-    <t>МУЖСКОЙ</t>
-  </si>
-  <si>
-    <t>130319 -                USA 19/05</t>
-  </si>
-  <si>
-    <t>19/05/2019</t>
-  </si>
-  <si>
-    <t>02/07/1959</t>
-  </si>
-  <si>
-    <t>482477716</t>
-  </si>
-  <si>
-    <t>визовое приглашение № 0047</t>
-  </si>
-  <si>
-    <t>РИКИ МАБУРН/RICKY MABURN</t>
-  </si>
-  <si>
-    <t>СТРИКЛИН/STRICKLIN</t>
   </si>
 </sst>
 </file>
@@ -424,49 +364,49 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -812,42 +752,40 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="33"/>
       <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="46" t="str">
+      <c r="L2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="str">
         <f>REPT(F2,1)</f>
-        <v>130319 -                USA 19/05</v>
-      </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
+        <v/>
+      </c>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
       <c r="R2" s="11" t="str">
         <f>REPT(I2,1)</f>
         <v/>
@@ -857,24 +795,24 @@
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="10"/>
@@ -902,24 +840,22 @@
     </row>
     <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="32" t="str">
+      <c r="K5" s="35" t="str">
         <f>REPT(B5,1)</f>
-        <v>визовое приглашение № 0047</v>
-      </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+        <v/>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="12"/>
@@ -949,29 +885,27 @@
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33" t="str">
+      <c r="L7" s="35"/>
+      <c r="M7" s="36" t="str">
         <f>REPT(D7,1)</f>
-        <v>ОДНОКРАТНАЯ</v>
-      </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+        <v/>
+      </c>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
@@ -1000,29 +934,27 @@
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33" t="str">
+      <c r="K9" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36" t="str">
         <f>REPT(D9,1)</f>
-        <v>США</v>
-      </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
+        <v/>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
@@ -1052,38 +984,34 @@
     <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="35"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="16"/>
       <c r="I11" s="10"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="40" t="str">
+        <f>REPT(C11,1)</f>
+        <v/>
+      </c>
+      <c r="M11" s="40"/>
+      <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="37" t="str">
-        <f>REPT(C11,1)</f>
-        <v>19/05/2019</v>
-      </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="33" t="str">
+      <c r="O11" s="36" t="str">
         <f>REPT(F11,1)</f>
-        <v>01/06/2019</v>
-      </c>
-      <c r="P11" s="33"/>
+        <v/>
+      </c>
+      <c r="P11" s="36"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -1112,30 +1040,28 @@
     <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="33" t="str">
+        <v>7</v>
+      </c>
+      <c r="L13" s="36" t="str">
         <f>REPT(C13,1)</f>
-        <v>СТРИКЛИН/STRICKLIN</v>
-      </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+        <v/>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
     </row>
@@ -1162,31 +1088,29 @@
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="B15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="17"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33" t="str">
+      <c r="K15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36" t="str">
         <f>REPT(E15,1)</f>
-        <v>РИКИ МАБУРН/RICKY MABURN</v>
-      </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
+        <v/>
+      </c>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
@@ -1195,61 +1119,57 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="33" t="str">
+      <c r="N16" s="36" t="str">
         <f>REPT(E16,1)</f>
         <v/>
       </c>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="3"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="36"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="10"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="40" t="str">
+        <f>REPT(D17,1)</f>
+        <v/>
+      </c>
+      <c r="N17" s="40"/>
+      <c r="O17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="32"/>
-      <c r="M17" s="37" t="str">
-        <f>REPT(D17,1)</f>
-        <v>02/07/1959</v>
-      </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="34" t="str">
+      <c r="P17" s="48" t="str">
         <f>REPT(G17,1)</f>
-        <v>МУЖСКОЙ</v>
-      </c>
-      <c r="Q17" s="34"/>
+        <v/>
+      </c>
+      <c r="Q17" s="48"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
@@ -1276,28 +1196,26 @@
     </row>
     <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="35"/>
+      <c r="B19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="35" t="str">
+      <c r="K19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="35"/>
+      <c r="M19" s="38" t="str">
         <f>REPT(D19,1)</f>
-        <v>482477716</v>
-      </c>
-      <c r="N19" s="35"/>
+        <v/>
+      </c>
+      <c r="N19" s="38"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -1327,28 +1245,26 @@
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="33"/>
+      <c r="B21" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33" t="str">
+      <c r="K21" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="35"/>
+      <c r="M21" s="36" t="str">
         <f>REPT(D21,1)</f>
-        <v>ТУРИЗМ</v>
-      </c>
-      <c r="N21" s="33"/>
+        <v/>
+      </c>
+      <c r="N21" s="36"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -1378,28 +1294,26 @@
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="41" t="s">
-        <v>32</v>
-      </c>
+      <c r="B23" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
       <c r="I23" s="10"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+      <c r="K23" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="41" t="str">
         <f>REPT(F23,1)</f>
-        <v>Москва, Санкт-Петербург</v>
+        <v/>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -1429,64 +1343,60 @@
     </row>
     <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
+      <c r="B25" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44" t="str">
+      <c r="K25" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43" t="str">
         <f>REPT(D25,1)</f>
-        <v>на борту теплохода "АКУН" (Viking Akun)</v>
-      </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
+        <v/>
+      </c>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="B26" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
+      <c r="K26" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="41" t="s">
-        <v>36</v>
-      </c>
+      <c r="B27" s="41"/>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
@@ -1497,7 +1407,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="41" t="str">
         <f>REPT(B27,1)</f>
-        <v>MIR TRAVEL COMPANY LTD., 190000, Россия,</v>
+        <v/>
       </c>
       <c r="L27" s="41"/>
       <c r="M27" s="41"/>
@@ -1510,9 +1420,7 @@
     </row>
     <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="41" t="s">
-        <v>35</v>
-      </c>
+      <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
@@ -1523,7 +1431,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="41" t="str">
         <f>REPT(B28,1)</f>
-        <v>Санкт-Петербург, улица Большая Морская 31-23</v>
+        <v/>
       </c>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
@@ -1537,11 +1445,11 @@
     <row r="29" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="29" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
@@ -1550,11 +1458,11 @@
       <c r="I29" s="30"/>
       <c r="J29" s="31"/>
       <c r="K29" s="26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="29" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -1586,39 +1494,35 @@
     </row>
     <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="B31" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
       <c r="I31" s="10"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="42" t="str">
+      <c r="K31" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="44" t="str">
         <f>REPT(E31,1)</f>
-        <v>Вышеуказанному туристу</v>
-      </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
+        <v/>
+      </c>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="41" t="s">
-        <v>21</v>
-      </c>
+      <c r="B32" s="41"/>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
@@ -1629,7 +1533,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="41" t="str">
         <f>REPT(B32,1)</f>
-        <v>предоставляется  размещение и питание на борту теплохода</v>
+        <v/>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
@@ -1642,9 +1546,7 @@
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="41" t="s">
-        <v>38</v>
-      </c>
+      <c r="B33" s="41"/>
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
@@ -1655,7 +1557,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="41" t="str">
         <f>REPT(B33,1)</f>
-        <v>"АКУН", трансферы и экскурсионное обслуживание</v>
+        <v/>
       </c>
       <c r="L33" s="41"/>
       <c r="M33" s="41"/>
@@ -1668,9 +1570,7 @@
     </row>
     <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="41" t="s">
-        <v>33</v>
-      </c>
+      <c r="B34" s="41"/>
       <c r="C34" s="41"/>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
@@ -1681,7 +1581,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="41" t="str">
         <f>REPT(B34,1)</f>
-        <v>в городе Москва, Санкт-Петербург</v>
+        <v/>
       </c>
       <c r="L34" s="41"/>
       <c r="M34" s="41"/>
@@ -1719,7 +1619,7 @@
     <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="41" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
@@ -1730,7 +1630,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="8"/>
       <c r="K36" s="41" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
@@ -1744,7 +1644,7 @@
     <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
@@ -1755,7 +1655,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="8"/>
       <c r="K37" s="41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
@@ -1769,7 +1669,7 @@
     <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1780,7 +1680,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="8"/>
       <c r="K38" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
@@ -1795,31 +1695,31 @@
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="32"/>
+        <v>19</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="35"/>
       <c r="H39" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="8"/>
       <c r="K39" s="9"/>
       <c r="L39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="P39" s="32"/>
+        <v>19</v>
+      </c>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="35"/>
       <c r="Q39" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -1830,10 +1730,10 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="1"/>
@@ -1841,10 +1741,10 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
       <c r="Q40" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -1853,29 +1753,29 @@
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="38">
+        <v>20</v>
+      </c>
+      <c r="D41" s="46">
         <f ca="1">TODAY()</f>
-        <v>43516</v>
-      </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
+        <v>43517</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="8"/>
       <c r="K41" s="9"/>
       <c r="L41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="38">
+        <v>20</v>
+      </c>
+      <c r="M41" s="46">
         <f ca="1">TODAY()</f>
-        <v>43516</v>
-      </c>
-      <c r="N41" s="39"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
+        <v>43517</v>
+      </c>
+      <c r="N41" s="47"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -1903,75 +1803,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:Q15"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="K21:L21"/>
@@ -1986,6 +1817,75 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/static/xlsx/1.xlsx
+++ b/static/xlsx/1.xlsx
@@ -104,10 +104,10 @@
     <t>зового отдела)</t>
   </si>
   <si>
-    <t>Реестровый № 000286</t>
-  </si>
-  <si>
     <t>016290</t>
+  </si>
+  <si>
+    <t>Реестровый №</t>
   </si>
 </sst>
 </file>
@@ -364,49 +364,49 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:H36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -752,40 +752,40 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
       <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="str">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="46" t="str">
         <f>REPT(F2,1)</f>
         <v/>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
       <c r="R2" s="11" t="str">
         <f>REPT(I2,1)</f>
         <v/>
@@ -795,24 +795,24 @@
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="10"/>
@@ -840,22 +840,22 @@
     </row>
     <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="35" t="str">
+      <c r="K5" s="32" t="str">
         <f>REPT(B5,1)</f>
         <v/>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="12"/>
@@ -885,27 +885,27 @@
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36" t="str">
+      <c r="L7" s="32"/>
+      <c r="M7" s="33" t="str">
         <f>REPT(D7,1)</f>
         <v/>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
@@ -934,27 +934,27 @@
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36" t="str">
+      <c r="L9" s="32"/>
+      <c r="M9" s="33" t="str">
         <f>REPT(D9,1)</f>
         <v/>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
@@ -986,32 +986,32 @@
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="16"/>
       <c r="I11" s="10"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="40" t="str">
+      <c r="L11" s="37" t="str">
         <f>REPT(C11,1)</f>
         <v/>
       </c>
-      <c r="M11" s="40"/>
+      <c r="M11" s="37"/>
       <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="36" t="str">
+      <c r="O11" s="33" t="str">
         <f>REPT(F11,1)</f>
         <v/>
       </c>
-      <c r="P11" s="36"/>
+      <c r="P11" s="33"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -1042,26 +1042,26 @@
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="36" t="str">
+      <c r="L13" s="33" t="str">
         <f>REPT(C13,1)</f>
         <v/>
       </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
     </row>
@@ -1088,29 +1088,29 @@
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="17"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36" t="str">
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="33" t="str">
         <f>REPT(E15,1)</f>
         <v/>
       </c>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
@@ -1119,57 +1119,57 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="36" t="str">
+      <c r="N16" s="33" t="str">
         <f>REPT(E16,1)</f>
         <v/>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
       <c r="R16" s="3"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="10"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="40" t="str">
+      <c r="L17" s="32"/>
+      <c r="M17" s="37" t="str">
         <f>REPT(D17,1)</f>
         <v/>
       </c>
-      <c r="N17" s="40"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="48" t="str">
+      <c r="P17" s="34" t="str">
         <f>REPT(G17,1)</f>
         <v/>
       </c>
-      <c r="Q17" s="48"/>
+      <c r="Q17" s="34"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
@@ -1196,26 +1196,26 @@
     </row>
     <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="38" t="str">
+      <c r="L19" s="32"/>
+      <c r="M19" s="35" t="str">
         <f>REPT(D19,1)</f>
         <v/>
       </c>
-      <c r="N19" s="38"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -1245,26 +1245,26 @@
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36" t="str">
+      <c r="L21" s="32"/>
+      <c r="M21" s="33" t="str">
         <f>REPT(D21,1)</f>
         <v/>
       </c>
-      <c r="N21" s="36"/>
+      <c r="N21" s="33"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -1294,23 +1294,23 @@
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
       <c r="I23" s="10"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
       <c r="O23" s="41" t="str">
         <f>REPT(F23,1)</f>
         <v/>
@@ -1343,53 +1343,53 @@
     </row>
     <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="43" t="str">
+      <c r="L25" s="43"/>
+      <c r="M25" s="44" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -1445,11 +1445,11 @@
     <row r="29" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
@@ -1458,11 +1458,11 @@
       <c r="I29" s="30"/>
       <c r="J29" s="31"/>
       <c r="K29" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -1494,29 +1494,29 @@
     </row>
     <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="10"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="44" t="str">
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="42" t="str">
         <f>REPT(E31,1)</f>
         <v/>
       </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
@@ -1697,12 +1697,12 @@
       <c r="C39" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="35" t="s">
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="35"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="9" t="s">
         <v>24</v>
       </c>
@@ -1712,12 +1712,12 @@
       <c r="L39" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="35" t="s">
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="35"/>
+      <c r="P39" s="32"/>
       <c r="Q39" s="9" t="s">
         <v>24</v>
       </c>
@@ -1730,8 +1730,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
       <c r="Q40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1755,13 +1755,13 @@
       <c r="C41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="38">
         <f ca="1">TODAY()</f>
         <v>43517</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="8"/>
@@ -1769,13 +1769,13 @@
       <c r="L41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="38">
         <f ca="1">TODAY()</f>
         <v>43517</v>
       </c>
-      <c r="N41" s="47"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -1803,6 +1803,75 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:Q15"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="K21:L21"/>
@@ -1817,75 +1886,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/static/xlsx/1.xlsx
+++ b/static/xlsx/1.xlsx
@@ -364,49 +364,49 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -752,40 +752,40 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="33"/>
       <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="46" t="str">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="str">
         <f>REPT(F2,1)</f>
         <v/>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
       <c r="R2" s="11" t="str">
         <f>REPT(I2,1)</f>
         <v/>
@@ -795,24 +795,24 @@
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="10"/>
@@ -840,22 +840,22 @@
     </row>
     <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="32" t="str">
+      <c r="K5" s="35" t="str">
         <f>REPT(B5,1)</f>
         <v/>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="12"/>
@@ -885,27 +885,27 @@
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33" t="str">
+      <c r="L7" s="35"/>
+      <c r="M7" s="36" t="str">
         <f>REPT(D7,1)</f>
         <v/>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
@@ -934,27 +934,27 @@
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33" t="str">
+      <c r="L9" s="35"/>
+      <c r="M9" s="36" t="str">
         <f>REPT(D9,1)</f>
         <v/>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
@@ -986,32 +986,32 @@
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="16"/>
       <c r="I11" s="10"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="37" t="str">
+      <c r="L11" s="40" t="str">
         <f>REPT(C11,1)</f>
         <v/>
       </c>
-      <c r="M11" s="37"/>
+      <c r="M11" s="40"/>
       <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="33" t="str">
+      <c r="O11" s="36" t="str">
         <f>REPT(F11,1)</f>
         <v/>
       </c>
-      <c r="P11" s="33"/>
+      <c r="P11" s="36"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -1042,26 +1042,26 @@
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="33" t="str">
+      <c r="L13" s="36" t="str">
         <f>REPT(C13,1)</f>
         <v/>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
     </row>
@@ -1088,29 +1088,29 @@
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="17"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33" t="str">
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36" t="str">
         <f>REPT(E15,1)</f>
         <v/>
       </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
@@ -1119,57 +1119,57 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="33" t="str">
+      <c r="N16" s="36" t="str">
         <f>REPT(E16,1)</f>
         <v/>
       </c>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="3"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="10"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="32"/>
-      <c r="M17" s="37" t="str">
+      <c r="L17" s="35"/>
+      <c r="M17" s="40" t="str">
         <f>REPT(D17,1)</f>
         <v/>
       </c>
-      <c r="N17" s="37"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="34" t="str">
+      <c r="P17" s="48" t="str">
         <f>REPT(G17,1)</f>
         <v/>
       </c>
-      <c r="Q17" s="34"/>
+      <c r="Q17" s="48"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
@@ -1196,26 +1196,26 @@
     </row>
     <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="35" t="str">
+      <c r="L19" s="35"/>
+      <c r="M19" s="38" t="str">
         <f>REPT(D19,1)</f>
         <v/>
       </c>
-      <c r="N19" s="35"/>
+      <c r="N19" s="38"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -1245,26 +1245,26 @@
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33" t="str">
+      <c r="L21" s="35"/>
+      <c r="M21" s="36" t="str">
         <f>REPT(D21,1)</f>
         <v/>
       </c>
-      <c r="N21" s="33"/>
+      <c r="N21" s="36"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -1294,23 +1294,23 @@
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
       <c r="I23" s="10"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="41" t="str">
         <f>REPT(F23,1)</f>
         <v/>
@@ -1343,53 +1343,53 @@
     </row>
     <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44" t="str">
+      <c r="L25" s="42"/>
+      <c r="M25" s="43" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -1494,29 +1494,29 @@
     </row>
     <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
       <c r="I31" s="10"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="42" t="str">
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="44" t="str">
         <f>REPT(E31,1)</f>
         <v/>
       </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
@@ -1697,12 +1697,12 @@
       <c r="C39" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="32" t="s">
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="32"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="9" t="s">
         <v>24</v>
       </c>
@@ -1712,12 +1712,12 @@
       <c r="L39" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="32" t="s">
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="32"/>
+      <c r="P39" s="35"/>
       <c r="Q39" s="9" t="s">
         <v>24</v>
       </c>
@@ -1730,8 +1730,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
       <c r="Q40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1755,13 +1755,13 @@
       <c r="C41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="46">
         <f ca="1">TODAY()</f>
         <v>43517</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="8"/>
@@ -1769,13 +1769,13 @@
       <c r="L41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="38">
+      <c r="M41" s="46">
         <f ca="1">TODAY()</f>
         <v>43517</v>
       </c>
-      <c r="N41" s="39"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -1803,75 +1803,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:Q15"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="K21:L21"/>
@@ -1886,6 +1817,75 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/static/xlsx/1.xlsx
+++ b/static/xlsx/1.xlsx
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -321,9 +321,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,12 +361,11 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,6 +375,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -734,12 +736,12 @@
     <col min="16" max="16" width="12.42578125" customWidth="1"/>
     <col min="17" max="17" width="18" customWidth="1"/>
     <col min="18" max="18" width="1" customWidth="1"/>
-    <col min="19" max="19" width="1.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="1.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -752,17 +754,17 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
       <c r="R1" s="33"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="U1" s="33"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
       <c r="B2" s="9"/>
       <c r="C2" s="34" t="s">
         <v>0</v>
@@ -786,14 +788,15 @@
       </c>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
-      <c r="R2" s="11" t="str">
+      <c r="R2" s="31" t="str">
         <f>REPT(I2,1)</f>
         <v/>
       </c>
       <c r="S2" s="10"/>
-    </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="U2" s="33"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" s="9"/>
       <c r="C3" s="34" t="s">
         <v>2</v>
@@ -802,9 +805,9 @@
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="9"/>
       <c r="L3" s="34" t="s">
         <v>2</v>
@@ -813,42 +816,44 @@
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
       <c r="P3" s="34"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
       <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="U3" s="33"/>
+    </row>
+    <row r="4" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
       <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
+      <c r="U4" s="33"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="35" t="str">
         <f>REPT(B5,1)</f>
         <v/>
@@ -856,14 +861,15 @@
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
       <c r="N5" s="35"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="13"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="U5" s="33"/>
+    </row>
+    <row r="6" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -880,11 +886,12 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="3"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="U6" s="33"/>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
@@ -908,11 +915,12 @@
       <c r="O7" s="36"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
+      <c r="R7" s="32"/>
       <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="U7" s="33"/>
+    </row>
+    <row r="8" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -929,11 +937,12 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="3"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="U8" s="33"/>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
       <c r="B9" s="35" t="s">
         <v>4</v>
       </c>
@@ -957,11 +966,12 @@
       <c r="O9" s="36"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
+      <c r="R9" s="32"/>
       <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="U9" s="33"/>
+    </row>
+    <row r="10" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -978,32 +988,33 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="3"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="10"/>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="U10" s="33"/>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="10"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="40" t="str">
+      <c r="L11" s="42" t="str">
         <f>REPT(C11,1)</f>
         <v/>
       </c>
-      <c r="M11" s="40"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
@@ -1012,12 +1023,13 @@
         <v/>
       </c>
       <c r="P11" s="36"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="10"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="32"/>
       <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="U11" s="33"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1034,11 +1046,12 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="3"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="U12" s="33"/>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
@@ -1062,11 +1075,12 @@
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
       <c r="Q13" s="36"/>
-      <c r="R13" s="10"/>
+      <c r="R13" s="32"/>
       <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="U13" s="33"/>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1083,11 +1097,12 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="3"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="10"/>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="U14" s="33"/>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
       <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1112,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="8"/>
       <c r="K15" s="35" t="s">
         <v>8</v>
@@ -1111,11 +1126,12 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
-      <c r="R15" s="10"/>
+      <c r="R15" s="32"/>
       <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="U15" s="33"/>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1135,46 +1151,48 @@
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
-      <c r="R16" s="3"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="10"/>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="U16" s="33"/>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
       <c r="B17" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="10"/>
       <c r="J17" s="8"/>
       <c r="K17" s="35" t="s">
         <v>9</v>
       </c>
       <c r="L17" s="35"/>
-      <c r="M17" s="40" t="str">
+      <c r="M17" s="42" t="str">
         <f>REPT(D17,1)</f>
         <v/>
       </c>
-      <c r="N17" s="40"/>
+      <c r="N17" s="42"/>
       <c r="O17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="48" t="str">
+      <c r="P17" s="50" t="str">
         <f>REPT(G17,1)</f>
         <v/>
       </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="10"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="32"/>
       <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="U17" s="33"/>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1191,17 +1209,18 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="3"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="10"/>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="U18" s="33"/>
+    </row>
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
       <c r="B19" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1211,19 +1230,20 @@
         <v>12</v>
       </c>
       <c r="L19" s="35"/>
-      <c r="M19" s="38" t="str">
+      <c r="M19" s="40" t="str">
         <f>REPT(D19,1)</f>
         <v/>
       </c>
-      <c r="N19" s="38"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
+      <c r="R19" s="32"/>
       <c r="S19" s="10"/>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="U19" s="33"/>
+    </row>
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1240,11 +1260,12 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="10"/>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="U20" s="33"/>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
       <c r="B21" s="35" t="s">
         <v>13</v>
       </c>
@@ -1268,11 +1289,12 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="10"/>
+      <c r="R21" s="32"/>
       <c r="S21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="U21" s="33"/>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1289,20 +1311,21 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="3"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="10"/>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="U22" s="33"/>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
       <c r="B23" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="10"/>
       <c r="J23" s="8"/>
       <c r="K23" s="35" t="s">
@@ -1311,17 +1334,18 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
-      <c r="O23" s="41" t="str">
+      <c r="O23" s="43" t="str">
         <f>REPT(F23,1)</f>
         <v/>
       </c>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="10"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="32"/>
       <c r="S23" s="10"/>
-    </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="U23" s="33"/>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1338,39 +1362,41 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="3"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="42" t="s">
+      <c r="U24" s="33"/>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="43" t="str">
+      <c r="L25" s="44"/>
+      <c r="M25" s="45" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="10"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="U25" s="33"/>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
       <c r="B26" s="35" t="s">
         <v>16</v>
       </c>
@@ -1391,118 +1417,123 @@
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
       <c r="Q26" s="9"/>
-      <c r="R26" s="10"/>
+      <c r="R26" s="32"/>
       <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="U26" s="33"/>
+    </row>
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="41" t="str">
+      <c r="K27" s="43" t="str">
         <f>REPT(B27,1)</f>
         <v/>
       </c>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="10"/>
+      <c r="R27" s="32"/>
       <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="U27" s="33"/>
+    </row>
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="41" t="str">
+      <c r="K28" s="43" t="str">
         <f>REPT(B28,1)</f>
         <v/>
       </c>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
       <c r="Q28" s="9"/>
-      <c r="R28" s="10"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="26" t="s">
+      <c r="U28" s="33"/>
+    </row>
+    <row r="29" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="29" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="26" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="29" t="s">
+      <c r="L29" s="26"/>
+      <c r="M29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="10"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="32"/>
       <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="23"/>
+      <c r="U29" s="33"/>
+    </row>
+    <row r="30" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="23"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="22"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="3"/>
+      <c r="R30" s="2"/>
       <c r="S30" s="10"/>
-    </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="U30" s="33"/>
+    </row>
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
       <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="10"/>
       <c r="J31" s="8"/>
       <c r="K31" s="35" t="s">
@@ -1510,164 +1541,171 @@
       </c>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
-      <c r="N31" s="44" t="str">
+      <c r="N31" s="46" t="str">
         <f>REPT(E31,1)</f>
         <v/>
       </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="10"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="10"/>
-    </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="U31" s="33"/>
+    </row>
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="10"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="41" t="str">
+      <c r="K32" s="43" t="str">
         <f>REPT(B32,1)</f>
         <v/>
       </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="10"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="32"/>
       <c r="S32" s="10"/>
-    </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="U32" s="33"/>
+    </row>
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="10"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="41" t="str">
+      <c r="K33" s="43" t="str">
         <f>REPT(B33,1)</f>
         <v/>
       </c>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="10"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="32"/>
       <c r="S33" s="10"/>
-    </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
+      <c r="U33" s="33"/>
+    </row>
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
       <c r="I34" s="10"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="41" t="str">
+      <c r="K34" s="43" t="str">
         <f>REPT(B34,1)</f>
         <v/>
       </c>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="10"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="32"/>
       <c r="S34" s="10"/>
-    </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="U34" s="33"/>
+    </row>
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
       <c r="I35" s="10"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="41" t="str">
+      <c r="K35" s="43" t="str">
         <f>REPT(B35,1)</f>
         <v/>
       </c>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="10"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="32"/>
       <c r="S35" s="10"/>
-    </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="41" t="s">
+      <c r="U35" s="33"/>
+    </row>
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
       <c r="I36" s="10"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="41" t="s">
+      <c r="K36" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="10"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="32"/>
       <c r="S36" s="10"/>
-    </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="41" t="s">
+      <c r="U36" s="33"/>
+    </row>
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
       <c r="I37" s="10"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="41" t="s">
+      <c r="K37" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="10"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="32"/>
       <c r="S37" s="10"/>
-    </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="U37" s="33"/>
+    </row>
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
         <v>18</v>
       </c>
@@ -1688,17 +1726,18 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
-      <c r="R38" s="10"/>
+      <c r="R38" s="32"/>
       <c r="S38" s="10"/>
-    </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="U38" s="33"/>
+    </row>
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="35" t="s">
         <v>21</v>
       </c>
@@ -1709,11 +1748,11 @@
       <c r="I39" s="10"/>
       <c r="J39" s="8"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="18" t="s">
+      <c r="L39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
       <c r="O39" s="35" t="s">
         <v>21</v>
       </c>
@@ -1721,11 +1760,12 @@
       <c r="Q39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R39" s="10"/>
+      <c r="R39" s="32"/>
       <c r="S39" s="10"/>
-    </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="U39" s="33"/>
+    </row>
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1746,60 +1786,63 @@
       <c r="Q40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R40" s="3"/>
+      <c r="R40" s="2"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="U40" s="33"/>
+    </row>
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="48">
         <f ca="1">TODAY()</f>
-        <v>43517</v>
-      </c>
-      <c r="E41" s="47"/>
+        <v>43522</v>
+      </c>
+      <c r="E41" s="49"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="8"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="18" t="s">
+      <c r="L41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="48">
         <f ca="1">TODAY()</f>
-        <v>43517</v>
-      </c>
-      <c r="N41" s="47"/>
+        <v>43522</v>
+      </c>
+      <c r="N41" s="49"/>
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
       <c r="Q41" s="9"/>
-      <c r="R41" s="10"/>
+      <c r="R41" s="32"/>
       <c r="S41" s="10"/>
-    </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
+      <c r="U41" s="33"/>
+    </row>
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="21"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="20"/>
+      <c r="U42" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="83">
@@ -1865,6 +1908,10 @@
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B5:E5"/>
@@ -1876,16 +1923,12 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:O9"/>
-    <mergeCell ref="N1:R1"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/static/xlsx/1.xlsx
+++ b/static/xlsx/1.xlsx
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -366,50 +366,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -717,7 +718,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="D25" sqref="D25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -754,40 +755,40 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
       <c r="R1" s="33"/>
       <c r="U1" s="33"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="str">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48" t="str">
         <f>REPT(F2,1)</f>
         <v/>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
       <c r="R2" s="31" t="str">
         <f>REPT(I2,1)</f>
         <v/>
@@ -798,24 +799,24 @@
     <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="10"/>
@@ -845,22 +846,22 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="35" t="str">
+      <c r="K5" s="34" t="str">
         <f>REPT(B5,1)</f>
         <v/>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="11"/>
@@ -892,27 +893,27 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36" t="str">
+      <c r="L7" s="34"/>
+      <c r="M7" s="35" t="str">
         <f>REPT(D7,1)</f>
         <v/>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="32"/>
@@ -943,27 +944,27 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36" t="str">
+      <c r="L9" s="34"/>
+      <c r="M9" s="35" t="str">
         <f>REPT(D9,1)</f>
         <v/>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="32"/>
@@ -997,32 +998,32 @@
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="15"/>
       <c r="I11" s="10"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="42" t="str">
+      <c r="L11" s="39" t="str">
         <f>REPT(C11,1)</f>
         <v/>
       </c>
-      <c r="M11" s="42"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="36" t="str">
+      <c r="O11" s="35" t="str">
         <f>REPT(F11,1)</f>
         <v/>
       </c>
-      <c r="P11" s="36"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="32"/>
       <c r="S11" s="10"/>
@@ -1055,26 +1056,26 @@
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="36" t="str">
+      <c r="L13" s="35" t="str">
         <f>REPT(C13,1)</f>
         <v/>
       </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
       <c r="R13" s="32"/>
       <c r="S13" s="10"/>
       <c r="U13" s="33"/>
@@ -1103,29 +1104,29 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="16"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36" t="str">
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35" t="str">
         <f>REPT(E15,1)</f>
         <v/>
       </c>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
       <c r="R15" s="32"/>
       <c r="S15" s="10"/>
       <c r="U15" s="33"/>
@@ -1135,58 +1136,58 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="36" t="str">
+      <c r="N16" s="35" t="str">
         <f>REPT(E16,1)</f>
         <v/>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
       <c r="R16" s="2"/>
       <c r="S16" s="10"/>
       <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="10"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="42" t="str">
+      <c r="L17" s="34"/>
+      <c r="M17" s="39" t="str">
         <f>REPT(D17,1)</f>
         <v/>
       </c>
-      <c r="N17" s="42"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="50" t="str">
+      <c r="P17" s="36" t="str">
         <f>REPT(G17,1)</f>
         <v/>
       </c>
-      <c r="Q17" s="50"/>
+      <c r="Q17" s="36"/>
       <c r="R17" s="32"/>
       <c r="S17" s="10"/>
       <c r="U17" s="33"/>
@@ -1215,26 +1216,26 @@
     </row>
     <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="40" t="str">
+      <c r="L19" s="34"/>
+      <c r="M19" s="37" t="str">
         <f>REPT(D19,1)</f>
         <v/>
       </c>
-      <c r="N19" s="40"/>
+      <c r="N19" s="37"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -1266,26 +1267,26 @@
     </row>
     <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36" t="str">
+      <c r="L21" s="34"/>
+      <c r="M21" s="35" t="str">
         <f>REPT(D21,1)</f>
         <v/>
       </c>
-      <c r="N21" s="36"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -1317,23 +1318,23 @@
     </row>
     <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="10"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
       <c r="O23" s="43" t="str">
         <f>REPT(F23,1)</f>
         <v/>
@@ -1368,54 +1369,54 @@
     </row>
     <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45" t="str">
+      <c r="L25" s="45"/>
+      <c r="M25" s="46" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
       <c r="R25" s="32"/>
       <c r="S25" s="10"/>
       <c r="U25" s="33"/>
     </row>
     <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="32"/>
       <c r="S26" s="10"/>
@@ -1525,29 +1526,29 @@
     </row>
     <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
       <c r="I31" s="10"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="46" t="str">
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="44" t="str">
         <f>REPT(E31,1)</f>
         <v/>
       </c>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
       <c r="R31" s="32"/>
       <c r="S31" s="10"/>
       <c r="U31" s="33"/>
@@ -1736,12 +1737,12 @@
       <c r="C39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="35" t="s">
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="35"/>
+      <c r="G39" s="34"/>
       <c r="H39" s="9" t="s">
         <v>24</v>
       </c>
@@ -1751,12 +1752,12 @@
       <c r="L39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="35" t="s">
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="35"/>
+      <c r="P39" s="34"/>
       <c r="Q39" s="9" t="s">
         <v>24</v>
       </c>
@@ -1770,8 +1771,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1781,8 +1782,8 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
       <c r="Q40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1796,13 +1797,13 @@
       <c r="C41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="40">
         <f ca="1">TODAY()</f>
         <v>43522</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="8"/>
@@ -1810,13 +1811,13 @@
       <c r="L41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="48">
+      <c r="M41" s="40">
         <f ca="1">TODAY()</f>
         <v>43522</v>
       </c>
-      <c r="N41" s="49"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="32"/>
       <c r="S41" s="10"/>
@@ -1846,68 +1847,11 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="F2:H2"/>
@@ -1924,11 +1868,68 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/static/xlsx/1.xlsx
+++ b/static/xlsx/1.xlsx
@@ -366,51 +366,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -718,7 +718,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:H25"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -755,40 +755,40 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
       <c r="R1" s="33"/>
       <c r="U1" s="33"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48" t="str">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="str">
         <f>REPT(F2,1)</f>
         <v/>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
       <c r="R2" s="31" t="str">
         <f>REPT(I2,1)</f>
         <v/>
@@ -799,24 +799,24 @@
     <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="10"/>
@@ -846,22 +846,22 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="34" t="str">
+      <c r="K5" s="35" t="str">
         <f>REPT(B5,1)</f>
         <v/>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="11"/>
@@ -893,27 +893,27 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35" t="str">
+      <c r="L7" s="35"/>
+      <c r="M7" s="36" t="str">
         <f>REPT(D7,1)</f>
         <v/>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="32"/>
@@ -944,27 +944,27 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35" t="str">
+      <c r="L9" s="35"/>
+      <c r="M9" s="36" t="str">
         <f>REPT(D9,1)</f>
         <v/>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="32"/>
@@ -998,32 +998,32 @@
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="15"/>
       <c r="I11" s="10"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="39" t="str">
+      <c r="L11" s="42" t="str">
         <f>REPT(C11,1)</f>
         <v/>
       </c>
-      <c r="M11" s="39"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="35" t="str">
+      <c r="O11" s="36" t="str">
         <f>REPT(F11,1)</f>
         <v/>
       </c>
-      <c r="P11" s="35"/>
+      <c r="P11" s="36"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="32"/>
       <c r="S11" s="10"/>
@@ -1056,26 +1056,26 @@
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="35" t="str">
+      <c r="L13" s="36" t="str">
         <f>REPT(C13,1)</f>
         <v/>
       </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
       <c r="R13" s="32"/>
       <c r="S13" s="10"/>
       <c r="U13" s="33"/>
@@ -1104,29 +1104,29 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="16"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35" t="str">
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36" t="str">
         <f>REPT(E15,1)</f>
         <v/>
       </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
       <c r="R15" s="32"/>
       <c r="S15" s="10"/>
       <c r="U15" s="33"/>
@@ -1136,58 +1136,58 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="35" t="str">
+      <c r="N16" s="36" t="str">
         <f>REPT(E16,1)</f>
         <v/>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="2"/>
       <c r="S16" s="10"/>
       <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="10"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="39" t="str">
+      <c r="L17" s="35"/>
+      <c r="M17" s="42" t="str">
         <f>REPT(D17,1)</f>
         <v/>
       </c>
-      <c r="N17" s="39"/>
+      <c r="N17" s="42"/>
       <c r="O17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="36" t="str">
+      <c r="P17" s="51" t="str">
         <f>REPT(G17,1)</f>
         <v/>
       </c>
-      <c r="Q17" s="36"/>
+      <c r="Q17" s="51"/>
       <c r="R17" s="32"/>
       <c r="S17" s="10"/>
       <c r="U17" s="33"/>
@@ -1216,26 +1216,26 @@
     </row>
     <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="34" t="s">
+      <c r="K19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="37" t="str">
+      <c r="L19" s="35"/>
+      <c r="M19" s="40" t="str">
         <f>REPT(D19,1)</f>
         <v/>
       </c>
-      <c r="N19" s="37"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -1267,26 +1267,26 @@
     </row>
     <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35" t="str">
+      <c r="L21" s="35"/>
+      <c r="M21" s="36" t="str">
         <f>REPT(D21,1)</f>
         <v/>
       </c>
-      <c r="N21" s="35"/>
+      <c r="N21" s="36"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -1318,23 +1318,23 @@
     </row>
     <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="10"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="43" t="str">
         <f>REPT(F23,1)</f>
         <v/>
@@ -1369,54 +1369,54 @@
     </row>
     <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="52"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="45" t="s">
+      <c r="K25" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="46" t="str">
+      <c r="L25" s="44"/>
+      <c r="M25" s="45" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
       <c r="R25" s="32"/>
       <c r="S25" s="10"/>
       <c r="U25" s="33"/>
     </row>
     <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="32"/>
       <c r="S26" s="10"/>
@@ -1526,29 +1526,29 @@
     </row>
     <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
       <c r="I31" s="10"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="44" t="str">
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="47" t="str">
         <f>REPT(E31,1)</f>
         <v/>
       </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
       <c r="R31" s="32"/>
       <c r="S31" s="10"/>
       <c r="U31" s="33"/>
@@ -1737,12 +1737,12 @@
       <c r="C39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="34" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="34"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="9" t="s">
         <v>24</v>
       </c>
@@ -1752,12 +1752,12 @@
       <c r="L39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="34" t="s">
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="34"/>
+      <c r="P39" s="35"/>
       <c r="Q39" s="9" t="s">
         <v>24</v>
       </c>
@@ -1771,8 +1771,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1782,8 +1782,8 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
       <c r="Q40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1797,13 +1797,13 @@
       <c r="C41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="49">
         <f ca="1">TODAY()</f>
         <v>43522</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="8"/>
@@ -1811,13 +1811,13 @@
       <c r="L41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="40">
+      <c r="M41" s="49">
         <f ca="1">TODAY()</f>
         <v>43522</v>
       </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="32"/>
       <c r="S41" s="10"/>
@@ -1847,11 +1847,68 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="M25:Q25"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="F2:H2"/>
@@ -1868,68 +1925,11 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/static/xlsx/1.xlsx
+++ b/static/xlsx/1.xlsx
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -366,50 +366,53 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,7 +721,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -742,7 +745,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -755,40 +758,40 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="53"/>
       <c r="R1" s="33"/>
       <c r="U1" s="33"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37" t="str">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49" t="str">
         <f>REPT(F2,1)</f>
         <v/>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
       <c r="R2" s="31" t="str">
         <f>REPT(I2,1)</f>
         <v/>
@@ -797,33 +800,33 @@
       <c r="U2" s="33"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="10"/>
       <c r="U3" s="33"/>
     </row>
     <row r="4" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -845,23 +848,23 @@
       <c r="U4" s="33"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="35" t="str">
+      <c r="K5" s="34" t="str">
         <f>REPT(B5,1)</f>
         <v/>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="11"/>
@@ -870,7 +873,7 @@
       <c r="U5" s="33"/>
     </row>
     <row r="6" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -892,28 +895,28 @@
       <c r="U6" s="33"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36" t="str">
+      <c r="L7" s="34"/>
+      <c r="M7" s="35" t="str">
         <f>REPT(D7,1)</f>
         <v/>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="32"/>
@@ -921,7 +924,7 @@
       <c r="U7" s="33"/>
     </row>
     <row r="8" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -943,28 +946,28 @@
       <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36" t="str">
+      <c r="L9" s="34"/>
+      <c r="M9" s="35" t="str">
         <f>REPT(D9,1)</f>
         <v/>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="32"/>
@@ -972,7 +975,7 @@
       <c r="U9" s="33"/>
     </row>
     <row r="10" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -994,43 +997,43 @@
       <c r="U10" s="33"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="15"/>
       <c r="I11" s="10"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="42" t="str">
+      <c r="L11" s="39" t="str">
         <f>REPT(C11,1)</f>
         <v/>
       </c>
-      <c r="M11" s="42"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="36" t="str">
+      <c r="O11" s="35" t="str">
         <f>REPT(F11,1)</f>
         <v/>
       </c>
-      <c r="P11" s="36"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="32"/>
       <c r="S11" s="10"/>
       <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1052,36 +1055,36 @@
       <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="36" t="str">
+      <c r="L13" s="35" t="str">
         <f>REPT(C13,1)</f>
         <v/>
       </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
       <c r="R13" s="32"/>
       <c r="S13" s="10"/>
       <c r="U13" s="33"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1103,97 +1106,97 @@
       <c r="U14" s="33"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="16"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36" t="str">
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35" t="str">
         <f>REPT(E15,1)</f>
         <v/>
       </c>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
       <c r="R15" s="32"/>
       <c r="S15" s="10"/>
       <c r="U15" s="33"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="36" t="str">
+      <c r="N16" s="35" t="str">
         <f>REPT(E16,1)</f>
         <v/>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
       <c r="R16" s="2"/>
       <c r="S16" s="10"/>
       <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="10"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="42" t="str">
+      <c r="L17" s="34"/>
+      <c r="M17" s="39" t="str">
         <f>REPT(D17,1)</f>
         <v/>
       </c>
-      <c r="N17" s="42"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="51" t="str">
+      <c r="P17" s="36" t="str">
         <f>REPT(G17,1)</f>
         <v/>
       </c>
-      <c r="Q17" s="51"/>
+      <c r="Q17" s="36"/>
       <c r="R17" s="32"/>
       <c r="S17" s="10"/>
       <c r="U17" s="33"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1215,27 +1218,27 @@
       <c r="U18" s="33"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="40" t="str">
+      <c r="L19" s="34"/>
+      <c r="M19" s="37" t="str">
         <f>REPT(D19,1)</f>
         <v/>
       </c>
-      <c r="N19" s="40"/>
+      <c r="N19" s="37"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -1244,7 +1247,7 @@
       <c r="U19" s="33"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1266,27 +1269,27 @@
       <c r="U20" s="33"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36" t="str">
+      <c r="L21" s="34"/>
+      <c r="M21" s="35" t="str">
         <f>REPT(D21,1)</f>
         <v/>
       </c>
-      <c r="N21" s="36"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -1295,7 +1298,7 @@
       <c r="U21" s="33"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1317,24 +1320,24 @@
       <c r="U22" s="33"/>
     </row>
     <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="10"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
       <c r="O23" s="43" t="str">
         <f>REPT(F23,1)</f>
         <v/>
@@ -1346,7 +1349,7 @@
       <c r="U23" s="33"/>
     </row>
     <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1368,62 +1371,62 @@
       <c r="U24" s="33"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45" t="str">
+      <c r="L25" s="45"/>
+      <c r="M25" s="46" t="str">
         <f>REPT(D25,1)</f>
         <v/>
       </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
       <c r="R25" s="32"/>
       <c r="S25" s="10"/>
       <c r="U25" s="33"/>
     </row>
     <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="32"/>
       <c r="S26" s="10"/>
       <c r="U26" s="33"/>
     </row>
     <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -1448,7 +1451,7 @@
       <c r="U27" s="33"/>
     </row>
     <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -1473,7 +1476,7 @@
       <c r="U28" s="33"/>
     </row>
     <row r="29" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="25" t="s">
         <v>27</v>
       </c>
@@ -1503,7 +1506,7 @@
       <c r="U29" s="33"/>
     </row>
     <row r="30" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
       <c r="D30" s="22"/>
@@ -1525,36 +1528,36 @@
       <c r="U30" s="33"/>
     </row>
     <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
       <c r="I31" s="10"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="47" t="str">
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="44" t="str">
         <f>REPT(E31,1)</f>
         <v/>
       </c>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
       <c r="R31" s="32"/>
       <c r="S31" s="10"/>
       <c r="U31" s="33"/>
     </row>
     <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -1579,7 +1582,7 @@
       <c r="U32" s="33"/>
     </row>
     <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -1604,7 +1607,7 @@
       <c r="U33" s="33"/>
     </row>
     <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -1629,7 +1632,7 @@
       <c r="U34" s="33"/>
     </row>
     <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -1654,7 +1657,7 @@
       <c r="U35" s="33"/>
     </row>
     <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="43" t="s">
         <v>22</v>
       </c>
@@ -1680,7 +1683,7 @@
       <c r="U36" s="33"/>
     </row>
     <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="43" t="s">
         <v>23</v>
       </c>
@@ -1706,7 +1709,7 @@
       <c r="U37" s="33"/>
     </row>
     <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
         <v>18</v>
       </c>
@@ -1732,17 +1735,17 @@
       <c r="U38" s="33"/>
     </row>
     <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="35" t="s">
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="35"/>
+      <c r="G39" s="34"/>
       <c r="H39" s="9" t="s">
         <v>24</v>
       </c>
@@ -1752,12 +1755,12 @@
       <c r="L39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="35" t="s">
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="35"/>
+      <c r="P39" s="34"/>
       <c r="Q39" s="9" t="s">
         <v>24</v>
       </c>
@@ -1766,13 +1769,13 @@
       <c r="U39" s="33"/>
     </row>
     <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1782,8 +1785,8 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
       <c r="Q40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1792,18 +1795,18 @@
       <c r="U40" s="33"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="40">
         <f ca="1">TODAY()</f>
         <v>43522</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="8"/>
@@ -1811,20 +1814,20 @@
       <c r="L41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="49">
+      <c r="M41" s="40">
         <f ca="1">TODAY()</f>
         <v>43522</v>
       </c>
-      <c r="N41" s="50"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="32"/>
       <c r="S41" s="10"/>
       <c r="U41" s="33"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -1847,68 +1850,11 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="F2:H2"/>
@@ -1925,11 +1871,68 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
